--- a/public/excel/format_import_guru_new.xlsx
+++ b/public/excel/format_import_guru_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\simtaf_v2\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\my_tahfidz\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99E345E9-71A7-47C5-A728-C764DA99A8C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459ADEA7-1967-45DD-A3E6-27B581232947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7080" xr2:uid="{CD4F6695-E1C8-4262-928D-10F003E42B79}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD4F6695-E1C8-4262-928D-10F003E42B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>asd</t>
   </si>
@@ -97,6 +97,27 @@
   </si>
   <si>
     <t>email_guru</t>
+  </si>
+  <si>
+    <t>Jenis kelamin</t>
+  </si>
+  <si>
+    <t>LAKI-LAKI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PEREMPUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanggal lahir </t>
+  </si>
+  <si>
+    <t>FORMAT PENULISAN</t>
+  </si>
+  <si>
+    <t>YANG BERWARNA MERAH TIDAK BOLEH DI HAPUS</t>
   </si>
 </sst>
 </file>
@@ -135,7 +156,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +166,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -173,6 +206,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,23 +546,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53FC779-C8EB-41EC-8EBA-5FD7CC28BDB0}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -527,8 +587,17 @@
       <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>123234</v>
       </c>
@@ -550,8 +619,15 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>123236</v>
       </c>
@@ -573,8 +649,17 @@
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>123238</v>
       </c>
@@ -596,8 +681,13 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>123240</v>
       </c>
@@ -620,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>123242</v>
       </c>
@@ -643,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>123244</v>
       </c>
@@ -666,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>123246</v>
       </c>
@@ -689,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>123248</v>
       </c>
@@ -712,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>123250</v>
       </c>
@@ -735,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>123252</v>
       </c>
@@ -758,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>123254</v>
       </c>
@@ -781,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>123256</v>
       </c>
@@ -804,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>123258</v>
       </c>
@@ -828,6 +918,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I4:K4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{D4343509-6B6E-4FB9-B653-227F284FE6A9}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{92924129-A9D7-4AD7-B3DF-2B1E5F7DF0A0}"/>
